--- a/Tags.xlsx
+++ b/Tags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABP\Desktop\Tags\Tagger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Tagger-Flarum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ADD42C-3E84-490C-BFDD-E02D76BB947E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F829DC57-ADA1-4E6C-A206-9DEA18087A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27074DCC-E55E-4960-BF62-CE74F29B8C2A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
   <si>
     <t>Generales</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Bancos</t>
   </si>
 </sst>
 </file>
@@ -668,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40447962-14BB-4706-85C6-825665BE76CC}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,6 +1384,20 @@
       <c r="E39">
         <f>MATCH(B39,Hoja1!A:A,0)</f>
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
